--- a/AAII_Financials/Yearly/NTAP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NTAP_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>NTAP</t>
   </si>
@@ -1074,8 +1074,8 @@
       <c r="I21" s="3">
         <v>1110900</v>
       </c>
-      <c r="J21" s="3">
-        <v>1002900</v>
+      <c r="J21" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K21" s="3">
         <v>1080200</v>
@@ -2728,8 +2728,8 @@
       <c r="I83" s="3">
         <v>334100</v>
       </c>
-      <c r="J83" s="3">
-        <v>344600</v>
+      <c r="J83" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K83" s="3">
         <v>293100</v>
@@ -3042,8 +3042,8 @@
       <c r="I94" s="3">
         <v>760400</v>
       </c>
-      <c r="J94" s="3">
-        <v>-228600</v>
+      <c r="J94" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K94" s="3">
         <v>-2310400</v>
@@ -3206,8 +3206,8 @@
       <c r="I100" s="3">
         <v>-3104000</v>
       </c>
-      <c r="J100" s="3">
-        <v>578900</v>
+      <c r="J100" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K100" s="3">
         <v>-343600</v>
@@ -3236,8 +3236,8 @@
       <c r="I101" s="3">
         <v>7900</v>
       </c>
-      <c r="J101" s="3">
-        <v>-9300</v>
+      <c r="J101" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K101" s="3">
         <v>-16100</v>

--- a/AAII_Financials/Yearly/NTAP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NTAP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>NTAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,157 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43945</v>
+      </c>
+      <c r="E7" s="2">
         <v>43581</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43217</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42853</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42489</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42118</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41754</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41390</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41026</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5412000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6146000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5919000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5491000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5546000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6122700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6325100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6332400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6233200</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1789000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2201000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2210000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2127000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2173000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2289500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2406000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2571300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2519800</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3623000</v>
+      </c>
+      <c r="E10" s="3">
         <v>3945000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3709000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3364000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3373000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3833200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3919100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3761100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3713400</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -816,38 +828,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>847000</v>
+      </c>
+      <c r="E12" s="3">
         <v>827000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>783000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>779000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>861000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>919300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>917300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>904200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>828200</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,39 +891,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E14" s="3">
         <v>35000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>52000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>116000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>88300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>9800</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -935,9 +957,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -947,68 +972,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4477000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4925000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4761000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4870000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5198000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5406200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5590800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5724600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5486700</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>935000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1221000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1158000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>621000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>348000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>716500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>734300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>607800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>746500</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1021,158 +1053,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E20" s="3">
         <v>105000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>103000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>52000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>46000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>38300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>42500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>50500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>40600</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1192000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1523000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1459000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>899000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>673000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1062000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1110900</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1080200</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E22" s="3">
         <v>58000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>62000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>52000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>49000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>42000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>36100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>91700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>74700</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>944000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1268000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1199000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>621000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>345000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>712800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>740700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>566600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>712400</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E24" s="3">
         <v>99000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>225000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>140000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>116000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>152900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>103200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>61300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>107000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1200,69 +1248,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>819000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1169000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>974000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>481000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>229000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>559900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>637500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>505300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>605400</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>819000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1169000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>974000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>481000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>229000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>559900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>637500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>505300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>605400</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1290,20 +1347,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="3">
         <v>-858000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>24</v>
@@ -1320,9 +1380,12 @@
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1350,9 +1413,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1380,69 +1446,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-105000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-103000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-52000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-46000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-38300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-42500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-50500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-40600</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>819000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1169000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>116000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>481000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>229000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>559900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>637500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>505300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>605400</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1470,74 +1545,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>819000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1169000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>116000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>481000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>229000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>559900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>637500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>505300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>605400</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43945</v>
+      </c>
+      <c r="E38" s="2">
         <v>43581</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43217</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42853</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42489</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42118</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41754</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41390</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41026</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1550,8 +1634,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1564,193 +1649,212 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2658000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2325000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2941000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2444000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2868000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1922000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2291000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3277100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1549800</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1574000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2450000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2477000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2435000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3404000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2712300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3675500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3848700</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>973000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1216000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1047000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>731000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>813000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>779000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1711800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>800900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>830900</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E44" s="3">
         <v>131000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>122000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>163000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>98000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>146000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>122400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>139500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>161500</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>274000</v>
+      </c>
+      <c r="E45" s="3">
         <v>364000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>392000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>383000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>234000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>522000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>489700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>525200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>435600</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4274000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5610000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6952000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6198000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6448000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6773000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6471300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8418200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6826500</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>24</v>
+      <c r="D47" s="3">
+        <v>80000</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>24</v>
@@ -1761,81 +1865,90 @@
       <c r="G47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="H47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>36000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>42000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>51000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>864000</v>
+      </c>
+      <c r="E48" s="3">
         <v>759000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>756000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>799000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>937000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1030000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1108800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1170900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1137200</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1822000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1782000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1833000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1815000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1856000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1117000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1109600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1168700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1141200</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1863,9 +1976,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1893,39 +2009,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>482000</v>
+      </c>
+      <c r="E52" s="3">
         <v>590000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>450000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>681000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>796000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>481000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>488100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>442600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>376400</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1953,39 +2075,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7522000</v>
+      </c>
+      <c r="E54" s="3">
         <v>8741000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9991000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9493000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10037000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9401000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9213800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11242400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9532300</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1998,8 +2126,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2012,188 +2141,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>426000</v>
+      </c>
+      <c r="E57" s="3">
         <v>542000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>609000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>347000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>254000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>284000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>247000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>259700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>233100</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>522000</v>
+      </c>
+      <c r="E58" s="3">
         <v>649000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>385000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1249000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>849000</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="I58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>1257800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1202300</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2668000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2676000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2537000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2526000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2559000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2425000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2447600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2313100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2084400</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3616000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3867000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3531000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4122000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3662000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2709000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2694600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3830600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3519800</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1146000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1144000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1541000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>744000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1490000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1487000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>990100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>994600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>62600</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2518000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2640000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3604000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1847000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2004000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1791000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1742600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1699700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1656300</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2221,9 +2369,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2251,9 +2402,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2281,39 +2435,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7280000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7651000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7715000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6713000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7156000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5987000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5427300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6524900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5238700</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2326,8 +2486,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2355,9 +2516,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2385,9 +2549,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2415,9 +2582,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2445,9 +2615,12 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2455,29 +2628,32 @@
         <v>0</v>
       </c>
       <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
         <v>-9000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>40000</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
       <c r="H72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3">
         <v>53000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2896800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2805300</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2505,9 +2681,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2535,9 +2714,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2565,39 +2747,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>242000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1090000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2276000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2780000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2881000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3414000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3786500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4717500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4293600</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2625,74 +2813,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43945</v>
+      </c>
+      <c r="E80" s="2">
         <v>43581</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43217</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42853</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42489</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42118</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41754</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41390</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41026</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>819000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1169000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>116000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>481000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>229000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>559900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>637500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>505300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>605400</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2705,38 +2902,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E83" s="3">
         <v>197000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>198000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>226000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>279000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>307200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>334100</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>293100</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2764,9 +2965,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2794,9 +2998,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2824,9 +3031,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2854,9 +3064,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2884,39 +3097,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1060000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1341000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1478000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>986000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>974000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1268100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1349600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1386300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1462600</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2929,38 +3148,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-173000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-145000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-175000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-160000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-175300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-221400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-303300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-407100</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2988,9 +3211,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3018,39 +3244,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1269000</v>
+      </c>
+      <c r="E94" s="3">
         <v>704000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-21000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-223000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>85000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-903200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>760400</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2310400</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3063,38 +3295,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-439000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-403000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-214000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-208000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-210000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-207400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-202300</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3122,9 +3358,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3152,9 +3391,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3182,97 +3424,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1960000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2631000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-986000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1179000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-109000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-675200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3104000</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-343600</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-30000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>26000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-11000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-59200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>7900</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-16100</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>335000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-616000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>497000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-427000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>946000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-369500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-986100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1727300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1207500</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NTAP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NTAP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>NTAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,169 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>43945</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43581</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43217</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42853</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42489</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42118</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41754</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41390</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41026</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5744000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5412000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6146000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5919000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5491000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5546000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6122700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6325100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6332400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6233200</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1929000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1789000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2201000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2210000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2127000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2173000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2289500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2406000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2571300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2519800</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3815000</v>
+      </c>
+      <c r="E10" s="3">
         <v>3623000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3945000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3709000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3364000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3373000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3833200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3919100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3761100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3713400</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -829,41 +841,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>881000</v>
+      </c>
+      <c r="E12" s="3">
         <v>847000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>827000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>783000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>779000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>861000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>919300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>917300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>904200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>828200</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -894,42 +910,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E14" s="3">
         <v>31000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>35000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>52000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>116000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>88300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>9800</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -960,9 +982,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -973,74 +998,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4727000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4477000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4925000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4761000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4870000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5198000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5406200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5590800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5724600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5486700</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1017000</v>
+      </c>
+      <c r="E18" s="3">
         <v>935000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1221000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1158000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>621000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>348000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>716500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>734300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>607800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>746500</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1054,173 +1086,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E20" s="3">
         <v>64000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>105000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>103000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>52000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>46000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>38300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>42500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>50500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>40600</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1243000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1192000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1523000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1459000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>899000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>673000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1062000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1110900</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1080200</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E22" s="3">
         <v>55000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>58000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>62000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>52000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>49000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>42000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>36100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>91700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>74700</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>962000</v>
+      </c>
+      <c r="E23" s="3">
         <v>944000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1268000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1199000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>621000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>345000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>712800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>740700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>566600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>712400</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>232000</v>
+      </c>
+      <c r="E24" s="3">
         <v>125000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>99000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>225000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>140000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>116000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>152900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>103200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>61300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>107000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1251,75 +1299,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>730000</v>
+      </c>
+      <c r="E26" s="3">
         <v>819000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1169000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>974000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>481000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>229000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>559900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>637500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>505300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>605400</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>730000</v>
+      </c>
+      <c r="E27" s="3">
         <v>819000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1169000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>974000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>481000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>229000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>559900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>637500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>505300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>605400</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1350,9 +1407,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1362,11 +1422,11 @@
       <c r="E29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="3">
         <v>-858000</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>24</v>
@@ -1383,9 +1443,12 @@
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1416,9 +1479,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1449,75 +1515,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-64000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-105000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-103000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-52000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-46000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-38300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-42500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-50500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-40600</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>730000</v>
+      </c>
+      <c r="E33" s="3">
         <v>819000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1169000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>116000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>481000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>229000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>559900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>637500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>505300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>605400</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1548,80 +1623,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>730000</v>
+      </c>
+      <c r="E35" s="3">
         <v>819000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1169000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>116000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>481000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>229000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>559900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>637500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>505300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>605400</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>43945</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43581</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43217</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42853</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42489</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42118</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41754</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41390</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41026</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1635,8 +1719,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1650,214 +1735,233 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4529000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2658000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2325000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2941000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2444000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2868000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1922000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2291000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3277100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1549800</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E42" s="3">
         <v>224000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1574000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2450000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2477000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2435000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3404000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2712300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3675500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3848700</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>945000</v>
+      </c>
+      <c r="E43" s="3">
         <v>973000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1216000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1047000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>731000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>813000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>779000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1711800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>830900</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E44" s="3">
         <v>145000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>131000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>122000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>163000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>98000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>146000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>122400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>139500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>161500</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>346000</v>
+      </c>
+      <c r="E45" s="3">
         <v>274000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>364000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>392000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>383000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>234000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>522000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>489700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>525200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>435600</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6001000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4274000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5610000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6952000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6198000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6448000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6773000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6471300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8418200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6826500</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E47" s="3">
         <v>80000</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>24</v>
@@ -1868,87 +1972,96 @@
       <c r="H47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>36000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>42000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>51000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>639000</v>
+      </c>
+      <c r="E48" s="3">
         <v>864000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>759000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>756000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>799000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>937000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1030000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1108800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1170900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1137200</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2140000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1822000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1782000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1833000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1815000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1856000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1117000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1109600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1168700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1141200</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1979,9 +2092,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2012,42 +2128,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>509000</v>
+      </c>
+      <c r="E52" s="3">
         <v>482000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>590000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>450000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>681000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>796000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>481000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>488100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>442600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>376400</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2078,42 +2200,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9360000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7522000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8741000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9991000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9493000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10037000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9401000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9213800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11242400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9532300</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2127,8 +2255,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2142,206 +2271,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>420000</v>
+      </c>
+      <c r="E57" s="3">
         <v>426000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>542000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>609000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>347000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>254000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>284000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>247000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>259700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>233100</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>522000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>649000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>385000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1249000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>849000</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>1257800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1202300</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3032000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2668000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2676000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2537000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2526000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2559000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2425000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2447600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2313100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2084400</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3452000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3616000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3867000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3531000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4122000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3662000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2709000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2694600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3830600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3519800</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2632000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1146000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1144000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1541000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>744000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1490000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1487000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>990100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>994600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>62600</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2591000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2518000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2640000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3604000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1847000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2004000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1791000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1742600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1699700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1656300</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2372,9 +2520,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2405,9 +2556,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2438,42 +2592,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8675000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7280000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7651000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7715000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6713000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7156000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5987000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5427300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6524900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5238700</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2487,8 +2647,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2519,9 +2680,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2552,9 +2716,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2585,9 +2752,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2618,42 +2788,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>211000</v>
       </c>
       <c r="E72" s="3">
         <v>0</v>
       </c>
       <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
         <v>-9000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>40000</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
       <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
         <v>53000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2896800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2805300</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2684,9 +2860,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2717,9 +2896,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2750,42 +2932,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>685000</v>
+      </c>
+      <c r="E76" s="3">
         <v>242000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1090000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2276000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2780000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2881000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3414000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3786500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4717500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4293600</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2816,80 +3004,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>43945</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43581</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43217</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42853</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42489</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42118</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41754</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41390</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41026</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>730000</v>
+      </c>
+      <c r="E81" s="3">
         <v>819000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1169000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>116000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>481000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>229000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>559900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>637500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>505300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>605400</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2903,41 +3100,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E83" s="3">
         <v>193000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>197000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>198000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>226000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>279000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>307200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>334100</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>293100</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2968,9 +3169,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3001,9 +3205,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3034,9 +3241,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3067,9 +3277,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3100,42 +3313,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1333000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1060000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1341000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1478000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>986000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>974000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1268100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1349600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1386300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1462600</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3149,41 +3368,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-162000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-124000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-173000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-145000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-175000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-160000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-175300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-221400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-303300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-407100</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3214,9 +3437,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3247,42 +3473,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E94" s="3">
         <v>1269000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>704000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-21000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-223000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>85000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-903200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>760400</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2310400</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3296,41 +3528,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-427000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-439000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-403000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-214000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-208000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-210000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-207400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-202300</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3361,9 +3597,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3394,9 +3633,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3427,106 +3669,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>444000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1960000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2631000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-986000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1179000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-109000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-675200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3104000</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-343600</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-34000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-30000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>26000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-11000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-59200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>7900</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-16100</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1869000</v>
+      </c>
+      <c r="E102" s="3">
         <v>335000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-616000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>497000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-427000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>946000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-369500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-986100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1727300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1207500</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NTAP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NTAP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>NTAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,182 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44680</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43945</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43581</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43217</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42853</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42489</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42118</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41754</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41390</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41026</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6318000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5744000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5412000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6146000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5919000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5491000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5546000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6122700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6325100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6332400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6233200</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2098000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1929000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1789000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2201000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2210000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2127000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2173000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2289500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2406000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2571300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2519800</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4220000</v>
+      </c>
+      <c r="E10" s="3">
         <v>3815000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3623000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3945000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3709000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3364000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3373000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3833200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3919100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3761100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3713400</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,8 +855,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,35 +865,38 @@
         <v>881000</v>
       </c>
       <c r="E12" s="3">
+        <v>881000</v>
+      </c>
+      <c r="F12" s="3">
         <v>847000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>827000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>783000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>779000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>861000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>919300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>917300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>904200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>828200</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -913,45 +930,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E14" s="3">
         <v>77000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>31000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>35000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>52000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>116000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>88300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>9800</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -985,9 +1008,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -999,80 +1025,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>5161000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4727000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4477000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4925000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4761000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4870000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5198000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5406200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5590800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5724600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5486700</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1157000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1017000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>935000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1221000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1158000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>621000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>348000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>716500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>734300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>607800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>746500</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1087,188 +1120,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E20" s="3">
         <v>19000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>64000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>105000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>103000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>52000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>46000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>38300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>42500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>50500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>40600</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1362000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1243000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1192000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1523000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1459000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>899000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>673000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1062000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1110900</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1080200</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E22" s="3">
         <v>74000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>55000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>58000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>62000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>52000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>49000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>42000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>36100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>91700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>74700</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1095000</v>
+      </c>
+      <c r="E23" s="3">
         <v>962000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>944000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1268000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1199000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>621000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>345000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>712800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>740700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>566600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>712400</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>158000</v>
+      </c>
+      <c r="E24" s="3">
         <v>232000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>125000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>99000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>225000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>140000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>116000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>152900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>103200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>61300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>107000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1302,81 +1351,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>937000</v>
+      </c>
+      <c r="E26" s="3">
         <v>730000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>819000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1169000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>974000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>481000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>229000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>559900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>637500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>505300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>605400</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>937000</v>
+      </c>
+      <c r="E27" s="3">
         <v>730000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>819000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1169000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>974000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>481000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>229000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>559900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>637500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>505300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>605400</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1410,9 +1468,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1425,11 +1486,11 @@
       <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="3">
         <v>-858000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>24</v>
@@ -1446,9 +1507,12 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1482,9 +1546,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1518,81 +1585,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-19000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-64000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-105000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-103000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-52000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-46000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-38300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-42500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-50500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-40600</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>937000</v>
+      </c>
+      <c r="E33" s="3">
         <v>730000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>819000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1169000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>116000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>481000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>229000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>559900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>637500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>505300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>605400</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1626,86 +1702,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>937000</v>
+      </c>
+      <c r="E35" s="3">
         <v>730000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>819000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1169000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>116000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>481000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>229000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>559900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>637500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>505300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>605400</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44680</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43945</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43581</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43217</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42853</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42489</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42118</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41754</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41390</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41026</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1720,8 +1805,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1736,235 +1822,254 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4112000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4529000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2658000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2325000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2941000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2444000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2868000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1922000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2291000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3277100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1549800</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E42" s="3">
         <v>67000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>224000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1574000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2450000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2477000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2435000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3404000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2712300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3675500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3848700</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1230000</v>
+      </c>
+      <c r="E43" s="3">
         <v>945000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>973000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1216000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1047000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>731000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>813000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>779000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1711800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>800900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>830900</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>204000</v>
+      </c>
+      <c r="E44" s="3">
         <v>114000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>145000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>131000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>122000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>163000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>98000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>146000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>122400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>139500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>161500</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>377000</v>
+      </c>
+      <c r="E45" s="3">
         <v>346000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>274000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>364000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>392000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>383000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>234000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>522000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>489700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>525200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>435600</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5945000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6001000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4274000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5610000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6952000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6198000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6448000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6773000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6471300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8418200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6826500</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E47" s="3">
         <v>71000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>80000</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>24</v>
@@ -1975,93 +2080,102 @@
       <c r="I47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="J47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>36000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>42000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>51000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>896000</v>
+      </c>
+      <c r="E48" s="3">
         <v>639000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>864000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>759000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>756000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>799000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>937000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1030000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1108800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1170900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1137200</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2488000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2140000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1822000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1782000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1833000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1815000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1856000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1117000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1109600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1168700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1141200</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2095,9 +2209,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2131,45 +2248,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>624000</v>
+      </c>
+      <c r="E52" s="3">
         <v>509000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>482000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>590000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>450000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>681000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>796000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>481000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>488100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>442600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>376400</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2203,45 +2326,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10026000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9360000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7522000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8741000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9991000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9493000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10037000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9401000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9213800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11242400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9532300</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2256,8 +2385,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2272,224 +2402,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>607000</v>
+      </c>
+      <c r="E57" s="3">
         <v>420000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>426000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>542000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>609000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>347000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>254000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>284000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>247000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>259700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>233100</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>522000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>649000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>385000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1249000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>849000</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>1257800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1202300</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3096000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3032000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2668000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2676000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2537000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2526000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2559000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2425000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2447600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2313100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2084400</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3953000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3452000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3616000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3867000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3531000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4122000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3662000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2709000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2694600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3830600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3519800</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2386000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2632000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1146000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1144000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1541000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>744000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1490000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1487000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>990100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>994600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>62600</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2849000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2591000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2518000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2640000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3604000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1847000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2004000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1791000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1742600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1699700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1656300</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2523,9 +2672,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2559,9 +2711,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2595,45 +2750,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9188000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8675000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7280000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7651000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7715000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6713000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7156000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5987000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5427300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6524900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5238700</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2648,8 +2809,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2683,9 +2845,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2719,9 +2884,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2755,9 +2923,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2791,45 +2962,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E72" s="3">
         <v>211000</v>
       </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
       <c r="F72" s="3">
         <v>0</v>
       </c>
       <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
         <v>-9000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>40000</v>
       </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
       <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3">
         <v>53000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2896800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2805300</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2863,9 +3040,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2899,9 +3079,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2935,45 +3118,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>838000</v>
+      </c>
+      <c r="E76" s="3">
         <v>685000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>242000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1090000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2276000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2780000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2881000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3414000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3786500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4717500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4293600</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3007,86 +3196,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44680</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43945</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43581</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43217</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42853</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42489</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42118</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41754</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41390</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41026</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>937000</v>
+      </c>
+      <c r="E81" s="3">
         <v>730000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>819000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1169000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>116000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>481000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>229000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>559900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>637500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>505300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>605400</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3101,44 +3299,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>194000</v>
+      </c>
+      <c r="E83" s="3">
         <v>207000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>193000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>197000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>198000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>226000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>279000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>307200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>334100</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>293100</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3172,9 +3374,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3208,9 +3413,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3244,9 +3452,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3280,9 +3491,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3316,45 +3530,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1211000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1333000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1060000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1341000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1478000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>986000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>974000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1268100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1349600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1386300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1462600</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3369,44 +3589,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-226000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-162000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-124000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-173000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-145000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-175000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-160000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-175300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-221400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-303300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-407100</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3440,9 +3664,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3476,45 +3703,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-561000</v>
+      </c>
+      <c r="E94" s="3">
         <v>21000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1269000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>704000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-21000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-223000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>85000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-903200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>760400</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2310400</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3529,44 +3762,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-446000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-427000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-439000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-403000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-214000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-208000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-210000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-207400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-202300</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3600,9 +3837,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3636,9 +3876,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3672,115 +3915,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1017000</v>
+      </c>
+      <c r="E100" s="3">
         <v>444000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1960000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2631000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-986000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1179000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-109000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-675200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3104000</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-343600</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E101" s="3">
         <v>71000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-34000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-30000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>26000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-11000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-59200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7900</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-16100</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-416000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1869000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>335000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-616000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>497000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-427000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>946000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-369500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-986100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1727300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1207500</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NTAP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NTAP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>NTAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,182 +665,195 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45044</v>
+      </c>
+      <c r="E7" s="2">
         <v>44680</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43945</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43581</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43217</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42853</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42489</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42118</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41754</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41390</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41026</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6362000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6318000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5744000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5412000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6146000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5919000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5491000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5546000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6122700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6325100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6332400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6233200</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2153000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2098000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1929000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1789000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2201000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2210000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2127000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2173000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2289500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2406000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2571300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2519800</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4209000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4220000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3815000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3623000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3945000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3709000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3364000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3373000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3833200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3919100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3761100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3713400</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,47 +869,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>881000</v>
+        <v>956000</v>
       </c>
       <c r="E12" s="3">
         <v>881000</v>
       </c>
       <c r="F12" s="3">
+        <v>881000</v>
+      </c>
+      <c r="G12" s="3">
         <v>847000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>827000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>783000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>779000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>861000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>919300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>917300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>904200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>828200</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -933,48 +950,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E14" s="3">
         <v>46000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>77000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>31000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>35000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>52000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>116000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>88300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>9800</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1011,9 +1034,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1026,86 +1052,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>5344000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5161000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4727000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4477000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4925000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4761000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4870000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5198000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5406200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5590800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5724600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5486700</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1018000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1157000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1017000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>935000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1221000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1158000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>621000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>348000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>716500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>734300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>607800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>746500</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1121,203 +1154,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E20" s="3">
         <v>11000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>19000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>64000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>105000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>103000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>52000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>46000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>38300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>42500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>50500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>40600</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1381000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1362000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1243000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1192000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1523000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1459000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>899000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>673000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1062000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1110900</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1080200</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E22" s="3">
         <v>73000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>74000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>55000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>58000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>62000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>52000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>49000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>42000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>36100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>91700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>74700</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1066000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1095000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>962000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>944000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1268000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1199000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>621000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>345000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>712800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>740700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>566600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>712400</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-208000</v>
+      </c>
+      <c r="E24" s="3">
         <v>158000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>232000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>125000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>99000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>225000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>140000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>116000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>152900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>103200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>61300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>107000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1354,87 +1403,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1274000</v>
+      </c>
+      <c r="E26" s="3">
         <v>937000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>730000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>819000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1169000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>974000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>481000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>229000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>559900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>637500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>505300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>605400</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1274000</v>
+      </c>
+      <c r="E27" s="3">
         <v>937000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>730000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>819000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1169000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>974000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>481000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>229000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>559900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>637500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>505300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>605400</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1471,9 +1529,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1489,11 +1550,11 @@
       <c r="G29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="3">
         <v>-858000</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>24</v>
@@ -1510,9 +1571,12 @@
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1549,9 +1613,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1588,87 +1655,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-115000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-11000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-19000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-64000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-105000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-103000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-52000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-46000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-38300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-42500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-50500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-40600</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1274000</v>
+      </c>
+      <c r="E33" s="3">
         <v>937000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>730000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>819000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1169000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>116000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>481000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>229000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>559900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>637500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>505300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>605400</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1705,92 +1781,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1274000</v>
+      </c>
+      <c r="E35" s="3">
         <v>937000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>730000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>819000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1169000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>116000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>481000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>229000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>559900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>637500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>505300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>605400</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45044</v>
+      </c>
+      <c r="E38" s="2">
         <v>44680</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43945</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43581</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43217</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42853</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42489</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42118</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41754</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41390</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41026</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1806,8 +1891,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1823,256 +1909,275 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2316000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4112000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4529000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2658000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2325000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2941000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2444000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2868000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1922000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2291000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3277100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1549800</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>754000</v>
+      </c>
+      <c r="E42" s="3">
         <v>22000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>67000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>224000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1574000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2450000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2477000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2435000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3404000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2712300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3675500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3848700</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>987000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1230000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>945000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>973000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1216000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1047000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>731000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>813000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>779000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1711800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>800900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>830900</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E44" s="3">
         <v>204000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>114000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>145000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>131000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>122000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>163000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>98000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>146000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>122400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>139500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>161500</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>456000</v>
+      </c>
+      <c r="E45" s="3">
         <v>377000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>346000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>274000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>364000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>392000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>383000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>234000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>522000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>489700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>525200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>435600</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4680000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5945000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6001000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4274000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5610000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6952000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6198000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6448000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6773000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6471300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8418200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6826500</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E47" s="3">
         <v>73000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>71000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>80000</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>24</v>
@@ -2083,99 +2188,108 @@
       <c r="J47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>36000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>42000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>51000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>931000</v>
+      </c>
+      <c r="E48" s="3">
         <v>896000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>639000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>864000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>759000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>756000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>799000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>937000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1030000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1108800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1170900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1137200</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2940000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2488000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2140000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1822000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1782000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1833000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1815000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1856000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1117000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1109600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1168700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1141200</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2212,9 +2326,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2251,48 +2368,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1187000</v>
+      </c>
+      <c r="E52" s="3">
         <v>624000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>509000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>482000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>590000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>450000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>681000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>796000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>481000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>488100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>442600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>376400</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2329,48 +2452,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9818000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10026000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9360000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7522000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8741000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9991000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9493000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10037000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9401000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9213800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11242400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9532300</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2386,8 +2515,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2403,242 +2533,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>392000</v>
+      </c>
+      <c r="E57" s="3">
         <v>607000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>420000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>426000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>542000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>609000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>347000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>254000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>284000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>247000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>259700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>233100</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>250000</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>522000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>649000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>385000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1249000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>849000</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="L58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>1257800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1202300</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3075000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3096000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3032000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2668000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2676000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2537000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2526000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2559000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2425000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2447600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2313100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2084400</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3467000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3953000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3452000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3616000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3867000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3531000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4122000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3662000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2709000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2694600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3830600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3519800</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2389000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2386000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2632000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1146000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1144000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1541000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>744000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1490000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1487000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>990100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>994600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>62600</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2803000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2849000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2591000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2518000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2640000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3604000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1847000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2004000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1791000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1742600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1699700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1656300</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2675,9 +2824,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2714,9 +2866,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2753,48 +2908,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8659000</v>
+      </c>
+      <c r="E66" s="3">
         <v>9188000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8675000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7280000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7651000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7715000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6713000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7156000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5987000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5427300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6524900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5238700</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2810,8 +2971,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2848,9 +3010,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2887,9 +3052,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2926,9 +3094,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2965,48 +3136,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E72" s="3">
         <v>122000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>211000</v>
       </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
       <c r="G72" s="3">
         <v>0</v>
       </c>
       <c r="H72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3">
         <v>-9000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>40000</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
       <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3">
         <v>53000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2896800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2805300</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3043,9 +3220,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3082,9 +3262,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3121,48 +3304,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1159000</v>
+      </c>
+      <c r="E76" s="3">
         <v>838000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>685000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>242000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1090000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2276000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2780000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2881000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3414000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3786500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4717500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4293600</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3199,92 +3388,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45044</v>
+      </c>
+      <c r="E80" s="2">
         <v>44680</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43945</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43581</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43217</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42853</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42489</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42118</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41754</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41390</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41026</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1274000</v>
+      </c>
+      <c r="E81" s="3">
         <v>937000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>730000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>819000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1169000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>116000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>481000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>229000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>559900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>637500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>505300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>605400</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3300,47 +3498,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>248000</v>
+      </c>
+      <c r="E83" s="3">
         <v>194000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>207000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>193000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>197000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>198000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>226000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>279000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>307200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>334100</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>293100</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3377,9 +3579,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3416,9 +3621,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3455,9 +3663,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3494,9 +3705,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3533,48 +3747,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1107000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1211000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1333000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1060000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1341000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1478000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>986000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>974000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1268100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1349600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1386300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1462600</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3590,47 +3810,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-239000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-226000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-162000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-124000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-173000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-145000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-175000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-160000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-175300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-221400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-303300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-407100</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3667,9 +3891,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3706,48 +3933,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1390000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-561000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>21000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1269000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>704000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-21000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-223000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>85000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-903200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>760400</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2310400</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3763,47 +3996,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-432000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-446000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-427000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-439000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-403000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-214000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-208000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-210000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-207400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-202300</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3840,9 +4077,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3879,9 +4119,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3918,124 +4161,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1513000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1017000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>444000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1960000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2631000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-986000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1179000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-109000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-675200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3104000</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-343600</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-49000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>71000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-34000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-30000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>26000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-11000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-59200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7900</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="N101" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-16100</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1797000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-416000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1869000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>335000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-616000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>497000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-427000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>946000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-369500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-986100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1727300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1207500</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
